--- a/Codes/dark_frames/Data/for_antor/j01_mooncycles.xlsx
+++ b/Codes/dark_frames/Data/for_antor/j01_mooncycles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antor/Documents/EOG/Codes/dark_frames/Data/for_antor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F697D0E5-4025-3444-93F7-F54D775E6A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39BC0A-BA1B-8E40-B486-1CB294083F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20211104" sheetId="5" r:id="rId1"/>
@@ -2404,7 +2404,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
